--- a/GVNS Results.xlsx
+++ b/GVNS Results.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/milads/Library/CloudStorage/OneDrive-ozyegin.edu.tr/Research/Nur - Binpacking/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{55955883-94F9-9D49-83E6-EC5F38595AB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BC225DE-58D5-1241-9A42-2B9E8620802F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17340" xr2:uid="{88B8D603-1C58-5948-92AB-C464CD88EE27}"/>
+    <workbookView xWindow="34380" yWindow="660" windowWidth="30240" windowHeight="17340" xr2:uid="{88B8D603-1C58-5948-92AB-C464CD88EE27}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -41,9 +41,6 @@
     <t>instance</t>
   </si>
   <si>
-    <t>Z_VNS</t>
-  </si>
-  <si>
     <t>Falkenauer_instances_modified_u120\Falkenauer_u120_00.txt_0_.txt</t>
   </si>
   <si>
@@ -1512,19 +1509,28 @@
   </si>
   <si>
     <t>Falkenauer_instances_modified_u2000\Falkenauer_u2000_09.txt_0.8_.txt</t>
+  </si>
+  <si>
+    <t>Z_GVNS</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1556,9 +1562,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1893,10 +1900,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90B86D0A-E5E0-6F4D-A1AB-1903D1427B66}">
-  <dimension ref="A1:B491"/>
+  <dimension ref="A1:B501"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:B491"/>
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1909,12 +1916,12 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>491</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2">
         <v>31</v>
@@ -1922,7 +1929,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B3">
         <v>31</v>
@@ -1930,7 +1937,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B4">
         <v>29</v>
@@ -1938,7 +1945,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B5">
         <v>31</v>
@@ -1946,7 +1953,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B6">
         <v>32</v>
@@ -1954,7 +1961,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B7">
         <v>31</v>
@@ -1962,7 +1969,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B8">
         <v>30</v>
@@ -1970,7 +1977,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B9">
         <v>31</v>
@@ -1978,7 +1985,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B10">
         <v>32</v>
@@ -1986,15 +1993,15 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11">
         <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B12">
         <v>31</v>
@@ -2002,7 +2009,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B13">
         <v>31</v>
@@ -2010,7 +2017,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B14">
         <v>30</v>
@@ -2018,7 +2025,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B15">
         <v>31</v>
@@ -2026,7 +2033,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B16">
         <v>31</v>
@@ -2034,7 +2041,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B17">
         <v>30</v>
@@ -2042,7 +2049,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B18">
         <v>30</v>
@@ -2050,7 +2057,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B19">
         <v>32</v>
@@ -2058,7 +2065,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B20">
         <v>32</v>
@@ -2066,15 +2073,15 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B21" s="1">
+        <v>20</v>
+      </c>
+      <c r="B21">
         <v>30</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B22">
         <v>31</v>
@@ -2082,7 +2089,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B23">
         <v>31</v>
@@ -2090,7 +2097,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B24">
         <v>30</v>
@@ -2098,7 +2105,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B25">
         <v>31</v>
@@ -2106,7 +2113,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B26">
         <v>32</v>
@@ -2114,7 +2121,7 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B27">
         <v>31</v>
@@ -2122,7 +2129,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B28">
         <v>31</v>
@@ -2130,7 +2137,7 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B29">
         <v>32</v>
@@ -2138,7 +2145,7 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B30">
         <v>32</v>
@@ -2146,15 +2153,15 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B31" s="1">
+        <v>30</v>
+      </c>
+      <c r="B31">
         <v>30</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B32">
         <v>31</v>
@@ -2162,7 +2169,7 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B33">
         <v>31</v>
@@ -2170,7 +2177,7 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B34">
         <v>30</v>
@@ -2178,7 +2185,7 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B35">
         <v>32</v>
@@ -2186,7 +2193,7 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B36">
         <v>32</v>
@@ -2194,7 +2201,7 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B37">
         <v>31</v>
@@ -2202,7 +2209,7 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B38">
         <v>31</v>
@@ -2210,7 +2217,7 @@
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B39">
         <v>32</v>
@@ -2218,7 +2225,7 @@
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B40">
         <v>32</v>
@@ -2226,15 +2233,15 @@
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B41" s="1">
+        <v>40</v>
+      </c>
+      <c r="B41">
         <v>30</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B42">
         <v>31</v>
@@ -2242,7 +2249,7 @@
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B43">
         <v>31</v>
@@ -2250,7 +2257,7 @@
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B44">
         <v>30</v>
@@ -2258,7 +2265,7 @@
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B45">
         <v>32</v>
@@ -2266,7 +2273,7 @@
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B46">
         <v>32</v>
@@ -2274,7 +2281,7 @@
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B47">
         <v>31</v>
@@ -2282,7 +2289,7 @@
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B48">
         <v>31</v>
@@ -2290,7 +2297,7 @@
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B49">
         <v>32</v>
@@ -2298,7 +2305,7 @@
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B50">
         <v>32</v>
@@ -2306,15 +2313,15 @@
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B51" s="1">
+        <v>50</v>
+      </c>
+      <c r="B51">
         <v>30</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B52">
         <v>32</v>
@@ -2322,7 +2329,7 @@
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B53">
         <v>32</v>
@@ -2330,7 +2337,7 @@
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B54">
         <v>30</v>
@@ -2338,7 +2345,7 @@
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B55">
         <v>32</v>
@@ -2346,7 +2353,7 @@
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B56">
         <v>33</v>
@@ -2354,7 +2361,7 @@
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B57">
         <v>32</v>
@@ -2362,7 +2369,7 @@
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B58">
         <v>32</v>
@@ -2370,7 +2377,7 @@
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B59">
         <v>33</v>
@@ -2378,7 +2385,7 @@
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B60">
         <v>33</v>
@@ -2386,15 +2393,15 @@
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B61" s="1">
+        <v>60</v>
+      </c>
+      <c r="B61">
         <v>31</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B62">
         <v>33</v>
@@ -2402,7 +2409,7 @@
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B63">
         <v>33</v>
@@ -2410,7 +2417,7 @@
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B64">
         <v>31</v>
@@ -2418,7 +2425,7 @@
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B65">
         <v>33</v>
@@ -2426,7 +2433,7 @@
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B66">
         <v>34</v>
@@ -2434,7 +2441,7 @@
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B67">
         <v>32</v>
@@ -2442,7 +2449,7 @@
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B68">
         <v>32</v>
@@ -2450,7 +2457,7 @@
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B69">
         <v>33</v>
@@ -2458,7 +2465,7 @@
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B70">
         <v>34</v>
@@ -2466,15 +2473,15 @@
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="B71" s="1">
+        <v>70</v>
+      </c>
+      <c r="B71">
         <v>31</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B72">
         <v>34</v>
@@ -2482,7 +2489,7 @@
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B73">
         <v>34</v>
@@ -2490,7 +2497,7 @@
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B74">
         <v>33</v>
@@ -2498,7 +2505,7 @@
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B75">
         <v>34</v>
@@ -2506,7 +2513,7 @@
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B76">
         <v>34</v>
@@ -2514,7 +2521,7 @@
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B77">
         <v>34</v>
@@ -2522,7 +2529,7 @@
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B78">
         <v>34</v>
@@ -2530,7 +2537,7 @@
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B79">
         <v>35</v>
@@ -2538,7 +2545,7 @@
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B80">
         <v>35</v>
@@ -2546,15 +2553,15 @@
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="B81" s="1">
+        <v>80</v>
+      </c>
+      <c r="B81">
         <v>34</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B82">
         <v>39</v>
@@ -2562,7 +2569,7 @@
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B83">
         <v>38</v>
@@ -2570,7 +2577,7 @@
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B84">
         <v>37</v>
@@ -2578,7 +2585,7 @@
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B85">
         <v>37</v>
@@ -2586,7 +2593,7 @@
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B86">
         <v>37</v>
@@ -2594,7 +2601,7 @@
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B87">
         <v>38</v>
@@ -2602,7 +2609,7 @@
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B88">
         <v>39</v>
@@ -2610,7 +2617,7 @@
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B89">
         <v>37</v>
@@ -2618,7 +2625,7 @@
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B90">
         <v>37</v>
@@ -2626,15 +2633,15 @@
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="B91" s="1">
+        <v>90</v>
+      </c>
+      <c r="B91">
         <v>36</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B92">
         <v>40</v>
@@ -2642,7 +2649,7 @@
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B93">
         <v>45</v>
@@ -2650,7 +2657,7 @@
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B94">
         <v>40</v>
@@ -2658,7 +2665,7 @@
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B95">
         <v>38</v>
@@ -2666,7 +2673,7 @@
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B96">
         <v>36</v>
@@ -2674,7 +2681,7 @@
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B97">
         <v>39</v>
@@ -2682,7 +2689,7 @@
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B98">
         <v>39</v>
@@ -2690,7 +2697,7 @@
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B99">
         <v>45</v>
@@ -2698,7 +2705,7 @@
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B100">
         <v>45</v>
@@ -2706,15 +2713,15 @@
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="B101" s="1">
+        <v>100</v>
+      </c>
+      <c r="B101">
         <v>46</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B102">
         <v>63</v>
@@ -2722,7 +2729,7 @@
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B103">
         <v>64</v>
@@ -2730,7 +2737,7 @@
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B104">
         <v>65</v>
@@ -2738,7 +2745,7 @@
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B105">
         <v>64</v>
@@ -2746,7 +2753,7 @@
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B106">
         <v>64</v>
@@ -2754,7 +2761,7 @@
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B107">
         <v>64</v>
@@ -2762,7 +2769,7 @@
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B108">
         <v>65</v>
@@ -2770,7 +2777,7 @@
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B109">
         <v>65</v>
@@ -2778,7 +2785,7 @@
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B110">
         <v>68</v>
@@ -2786,7 +2793,7 @@
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B111">
         <v>64</v>
@@ -2794,7 +2801,7 @@
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B112">
         <v>63</v>
@@ -2802,7 +2809,7 @@
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B113">
         <v>63</v>
@@ -2810,7 +2817,7 @@
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B114">
         <v>64</v>
@@ -2818,7 +2825,7 @@
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B115">
         <v>64</v>
@@ -2826,7 +2833,7 @@
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B116">
         <v>65</v>
@@ -2834,7 +2841,7 @@
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B117">
         <v>65</v>
@@ -2842,7 +2849,7 @@
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B118">
         <v>65</v>
@@ -2850,7 +2857,7 @@
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B119">
         <v>65</v>
@@ -2858,7 +2865,7 @@
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B120">
         <v>67</v>
@@ -2866,7 +2873,7 @@
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B121">
         <v>64</v>
@@ -2874,7 +2881,7 @@
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B122">
         <v>63</v>
@@ -2882,7 +2889,7 @@
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B123">
         <v>63</v>
@@ -2890,7 +2897,7 @@
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B124">
         <v>65</v>
@@ -2898,7 +2905,7 @@
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B125">
         <v>64</v>
@@ -2906,7 +2913,7 @@
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B126">
         <v>65</v>
@@ -2914,7 +2921,7 @@
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B127">
         <v>65</v>
@@ -2922,7 +2929,7 @@
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B128">
         <v>65</v>
@@ -2930,7 +2937,7 @@
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B129">
         <v>65</v>
@@ -2938,7 +2945,7 @@
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B130">
         <v>68</v>
@@ -2946,7 +2953,7 @@
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B131">
         <v>64</v>
@@ -2954,7 +2961,7 @@
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B132">
         <v>64</v>
@@ -2962,7 +2969,7 @@
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B133">
         <v>64</v>
@@ -2970,7 +2977,7 @@
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B134">
         <v>66</v>
@@ -2978,7 +2985,7 @@
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B135">
         <v>64</v>
@@ -2986,7 +2993,7 @@
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B136">
         <v>65</v>
@@ -2994,7 +3001,7 @@
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B137">
         <v>66</v>
@@ -3002,7 +3009,7 @@
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B138">
         <v>65</v>
@@ -3010,7 +3017,7 @@
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B139">
         <v>66</v>
@@ -3018,7 +3025,7 @@
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B140">
         <v>68</v>
@@ -3026,7 +3033,7 @@
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B141">
         <v>64</v>
@@ -3034,7 +3041,7 @@
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B142">
         <v>64</v>
@@ -3042,7 +3049,7 @@
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B143">
         <v>65</v>
@@ -3050,7 +3057,7 @@
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B144">
         <v>66</v>
@@ -3058,7 +3065,7 @@
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B145">
         <v>64</v>
@@ -3066,7 +3073,7 @@
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B146">
         <v>66</v>
@@ -3074,7 +3081,7 @@
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B147">
         <v>65</v>
@@ -3082,7 +3089,7 @@
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B148">
         <v>66</v>
@@ -3090,7 +3097,7 @@
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B149">
         <v>67</v>
@@ -3098,7 +3105,7 @@
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B150">
         <v>69</v>
@@ -3106,7 +3113,7 @@
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B151">
         <v>64</v>
@@ -3114,7 +3121,7 @@
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B152">
         <v>66</v>
@@ -3122,7 +3129,7 @@
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B153">
         <v>66</v>
@@ -3130,7 +3137,7 @@
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B154">
         <v>68</v>
@@ -3138,7 +3145,7 @@
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B155">
         <v>67</v>
@@ -3146,7 +3153,7 @@
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B156">
         <v>67</v>
@@ -3154,7 +3161,7 @@
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B157">
         <v>66</v>
@@ -3162,7 +3169,7 @@
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B158">
         <v>68</v>
@@ -3170,7 +3177,7 @@
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B159">
         <v>67</v>
@@ -3178,7 +3185,7 @@
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B160">
         <v>69</v>
@@ -3186,7 +3193,7 @@
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B161">
         <v>66</v>
@@ -3194,7 +3201,7 @@
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B162">
         <v>68</v>
@@ -3202,7 +3209,7 @@
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B163">
         <v>66</v>
@@ -3210,7 +3217,7 @@
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B164">
         <v>67</v>
@@ -3218,7 +3225,7 @@
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B165">
         <v>68</v>
@@ -3226,7 +3233,7 @@
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B166">
         <v>70</v>
@@ -3234,7 +3241,7 @@
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B167">
         <v>68</v>
@@ -3242,7 +3249,7 @@
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B168">
         <v>68</v>
@@ -3250,7 +3257,7 @@
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B169">
         <v>69</v>
@@ -3258,7 +3265,7 @@
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B170">
         <v>72</v>
@@ -3266,7 +3273,7 @@
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B171">
         <v>68</v>
@@ -3274,7 +3281,7 @@
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B172">
         <v>70</v>
@@ -3282,7 +3289,7 @@
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B173">
         <v>72</v>
@@ -3290,7 +3297,7 @@
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B174">
         <v>71</v>
@@ -3298,7 +3305,7 @@
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B175">
         <v>72</v>
@@ -3306,7 +3313,7 @@
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B176">
         <v>72</v>
@@ -3314,7 +3321,7 @@
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B177">
         <v>71</v>
@@ -3322,7 +3329,7 @@
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B178">
         <v>72</v>
@@ -3330,7 +3337,7 @@
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B179">
         <v>72</v>
@@ -3338,7 +3345,7 @@
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B180">
         <v>74</v>
@@ -3346,7 +3353,7 @@
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B181">
         <v>71</v>
@@ -3354,7 +3361,7 @@
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B182">
         <v>77</v>
@@ -3362,7 +3369,7 @@
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B183">
         <v>74</v>
@@ -3370,7 +3377,7 @@
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B184">
         <v>78</v>
@@ -3378,7 +3385,7 @@
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B185">
         <v>74</v>
@@ -3386,7 +3393,7 @@
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B186">
         <v>76</v>
@@ -3394,7 +3401,7 @@
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B187">
         <v>75</v>
@@ -3402,7 +3409,7 @@
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B188">
         <v>77</v>
@@ -3410,7 +3417,7 @@
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B189">
         <v>77</v>
@@ -3418,7 +3425,7 @@
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B190">
         <v>78</v>
@@ -3426,7 +3433,7 @@
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B191">
         <v>74</v>
@@ -3434,7 +3441,7 @@
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B192">
         <v>80</v>
@@ -3442,7 +3449,7 @@
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B193">
         <v>81</v>
@@ -3450,7 +3457,7 @@
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B194">
         <v>86</v>
@@ -3458,7 +3465,7 @@
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B195">
         <v>86</v>
@@ -3466,7 +3473,7 @@
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B196">
         <v>87</v>
@@ -3474,7 +3481,7 @@
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B197">
         <v>82</v>
@@ -3482,7 +3489,7 @@
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B198">
         <v>82</v>
@@ -3490,7 +3497,7 @@
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B199">
         <v>85</v>
@@ -3498,7 +3505,7 @@
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B200">
         <v>85</v>
@@ -3506,15 +3513,15 @@
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A201" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="B201" s="1">
+        <v>200</v>
+      </c>
+      <c r="B201">
         <v>85</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B202">
         <v>126</v>
@@ -3522,7 +3529,7 @@
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B203">
         <v>128</v>
@@ -3530,7 +3537,7 @@
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B204">
         <v>129</v>
@@ -3538,7 +3545,7 @@
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B205">
         <v>129</v>
@@ -3546,7 +3553,7 @@
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B206">
         <v>131</v>
@@ -3554,7 +3561,7 @@
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B207">
         <v>130</v>
@@ -3562,7 +3569,7 @@
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B208">
         <v>132</v>
@@ -3570,7 +3577,7 @@
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B209">
         <v>129</v>
@@ -3578,7 +3585,7 @@
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B210">
         <v>125</v>
@@ -3586,7 +3593,7 @@
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B211">
         <v>129</v>
@@ -3594,7 +3601,7 @@
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B212">
         <v>127</v>
@@ -3602,7 +3609,7 @@
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B213">
         <v>128</v>
@@ -3610,7 +3617,7 @@
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B214">
         <v>129</v>
@@ -3618,7 +3625,7 @@
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B215">
         <v>130</v>
@@ -3626,7 +3633,7 @@
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B216">
         <v>131</v>
@@ -3634,7 +3641,7 @@
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B217">
         <v>130</v>
@@ -3642,7 +3649,7 @@
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B218">
         <v>131</v>
@@ -3650,7 +3657,7 @@
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B219">
         <v>129</v>
@@ -3658,7 +3665,7 @@
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B220">
         <v>126</v>
@@ -3666,7 +3673,7 @@
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B221">
         <v>129</v>
@@ -3674,7 +3681,7 @@
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B222">
         <v>126</v>
@@ -3682,7 +3689,7 @@
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B223">
         <v>129</v>
@@ -3690,7 +3697,7 @@
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B224">
         <v>130</v>
@@ -3698,7 +3705,7 @@
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B225">
         <v>130</v>
@@ -3706,7 +3713,7 @@
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B226">
         <v>132</v>
@@ -3714,7 +3721,7 @@
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B227">
         <v>131</v>
@@ -3722,7 +3729,7 @@
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B228">
         <v>134</v>
@@ -3730,7 +3737,7 @@
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B229">
         <v>130</v>
@@ -3738,7 +3745,7 @@
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B230">
         <v>126</v>
@@ -3746,7 +3753,7 @@
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B231">
         <v>130</v>
@@ -3754,7 +3761,7 @@
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B232">
         <v>128</v>
@@ -3762,7 +3769,7 @@
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B233">
         <v>129</v>
@@ -3770,7 +3777,7 @@
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B234">
         <v>131</v>
@@ -3778,7 +3785,7 @@
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B235">
         <v>131</v>
@@ -3786,7 +3793,7 @@
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B236">
         <v>132</v>
@@ -3794,7 +3801,7 @@
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B237">
         <v>133</v>
@@ -3802,7 +3809,7 @@
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B238">
         <v>133</v>
@@ -3810,7 +3817,7 @@
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B239">
         <v>131</v>
@@ -3818,7 +3825,7 @@
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B240">
         <v>127</v>
@@ -3826,7 +3833,7 @@
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B241">
         <v>130</v>
@@ -3834,7 +3841,7 @@
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B242">
         <v>129</v>
@@ -3842,7 +3849,7 @@
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B243">
         <v>131</v>
@@ -3850,7 +3857,7 @@
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B244">
         <v>131</v>
@@ -3858,7 +3865,7 @@
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B245">
         <v>131</v>
@@ -3866,7 +3873,7 @@
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B246">
         <v>134</v>
@@ -3874,7 +3881,7 @@
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B247">
         <v>133</v>
@@ -3882,7 +3889,7 @@
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B248">
         <v>135</v>
@@ -3890,7 +3897,7 @@
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B249">
         <v>132</v>
@@ -3898,7 +3905,7 @@
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B250">
         <v>129</v>
@@ -3906,7 +3913,7 @@
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B251">
         <v>131</v>
@@ -3914,7 +3921,7 @@
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B252">
         <v>131</v>
@@ -3922,7 +3929,7 @@
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B253">
         <v>131</v>
@@ -3930,7 +3937,7 @@
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B254">
         <v>134</v>
@@ -3938,7 +3945,7 @@
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B255">
         <v>133</v>
@@ -3946,7 +3953,7 @@
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B256">
         <v>135</v>
@@ -3954,7 +3961,7 @@
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B257">
         <v>135</v>
@@ -3962,7 +3969,7 @@
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B258">
         <v>136</v>
@@ -3970,7 +3977,7 @@
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B259">
         <v>133</v>
@@ -3978,7 +3985,7 @@
     </row>
     <row r="260" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B260">
         <v>129</v>
@@ -3986,7 +3993,7 @@
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B261">
         <v>131</v>
@@ -3994,7 +4001,7 @@
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B262">
         <v>134</v>
@@ -4002,7 +4009,7 @@
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B263">
         <v>135</v>
@@ -4010,7 +4017,7 @@
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B264">
         <v>136</v>
@@ -4018,7 +4025,7 @@
     </row>
     <row r="265" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B265">
         <v>137</v>
@@ -4026,7 +4033,7 @@
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B266">
         <v>137</v>
@@ -4034,7 +4041,7 @@
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B267">
         <v>136</v>
@@ -4042,7 +4049,7 @@
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B268">
         <v>140</v>
@@ -4050,7 +4057,7 @@
     </row>
     <row r="269" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B269">
         <v>137</v>
@@ -4058,7 +4065,7 @@
     </row>
     <row r="270" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B270">
         <v>133</v>
@@ -4066,7 +4073,7 @@
     </row>
     <row r="271" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B271">
         <v>136</v>
@@ -4074,7 +4081,7 @@
     </row>
     <row r="272" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B272">
         <v>138</v>
@@ -4082,7 +4089,7 @@
     </row>
     <row r="273" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B273">
         <v>140</v>
@@ -4090,7 +4097,7 @@
     </row>
     <row r="274" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B274">
         <v>140</v>
@@ -4098,7 +4105,7 @@
     </row>
     <row r="275" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B275">
         <v>140</v>
@@ -4106,7 +4113,7 @@
     </row>
     <row r="276" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B276">
         <v>142</v>
@@ -4114,7 +4121,7 @@
     </row>
     <row r="277" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B277">
         <v>141</v>
@@ -4122,7 +4129,7 @@
     </row>
     <row r="278" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B278">
         <v>144</v>
@@ -4130,7 +4137,7 @@
     </row>
     <row r="279" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B279">
         <v>142</v>
@@ -4138,7 +4145,7 @@
     </row>
     <row r="280" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B280">
         <v>138</v>
@@ -4146,7 +4153,7 @@
     </row>
     <row r="281" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B281">
         <v>138</v>
@@ -4154,7 +4161,7 @@
     </row>
     <row r="282" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B282">
         <v>147</v>
@@ -4162,7 +4169,7 @@
     </row>
     <row r="283" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B283">
         <v>146</v>
@@ -4170,7 +4177,7 @@
     </row>
     <row r="284" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B284">
         <v>149</v>
@@ -4178,7 +4185,7 @@
     </row>
     <row r="285" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B285">
         <v>149</v>
@@ -4186,7 +4193,7 @@
     </row>
     <row r="286" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B286">
         <v>151</v>
@@ -4194,7 +4201,7 @@
     </row>
     <row r="287" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B287">
         <v>151</v>
@@ -4202,7 +4209,7 @@
     </row>
     <row r="288" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B288">
         <v>151</v>
@@ -4210,7 +4217,7 @@
     </row>
     <row r="289" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B289">
         <v>149</v>
@@ -4218,7 +4225,7 @@
     </row>
     <row r="290" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B290">
         <v>147</v>
@@ -4226,7 +4233,7 @@
     </row>
     <row r="291" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B291">
         <v>149</v>
@@ -4234,7 +4241,7 @@
     </row>
     <row r="292" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B292">
         <v>167</v>
@@ -4242,7 +4249,7 @@
     </row>
     <row r="293" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B293">
         <v>169</v>
@@ -4250,7 +4257,7 @@
     </row>
     <row r="294" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A294" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B294">
         <v>172</v>
@@ -4258,7 +4265,7 @@
     </row>
     <row r="295" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A295" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B295">
         <v>171</v>
@@ -4266,7 +4273,7 @@
     </row>
     <row r="296" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A296" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B296">
         <v>171</v>
@@ -4274,7 +4281,7 @@
     </row>
     <row r="297" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B297">
         <v>172</v>
@@ -4282,7 +4289,7 @@
     </row>
     <row r="298" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A298" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B298">
         <v>170</v>
@@ -4290,7 +4297,7 @@
     </row>
     <row r="299" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B299">
         <v>171</v>
@@ -4298,7 +4305,7 @@
     </row>
     <row r="300" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A300" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B300">
         <v>170</v>
@@ -4306,7 +4313,7 @@
     </row>
     <row r="301" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A301" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B301">
         <v>172</v>
@@ -4314,7 +4321,7 @@
     </row>
     <row r="302" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A302" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B302">
         <v>256</v>
@@ -4322,7 +4329,7 @@
     </row>
     <row r="303" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A303" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B303">
         <v>256</v>
@@ -4330,7 +4337,7 @@
     </row>
     <row r="304" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A304" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B304">
         <v>260</v>
@@ -4338,7 +4345,7 @@
     </row>
     <row r="305" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A305" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B305">
         <v>263</v>
@@ -4346,7 +4353,7 @@
     </row>
     <row r="306" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A306" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B306">
         <v>255</v>
@@ -4354,7 +4361,7 @@
     </row>
     <row r="307" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A307" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B307">
         <v>255</v>
@@ -4362,7 +4369,7 @@
     </row>
     <row r="308" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A308" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B308">
         <v>251</v>
@@ -4370,7 +4377,7 @@
     </row>
     <row r="309" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A309" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B309">
         <v>258</v>
@@ -4378,7 +4385,7 @@
     </row>
     <row r="310" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A310" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B310">
         <v>257</v>
@@ -4386,7 +4393,7 @@
     </row>
     <row r="311" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A311" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B311">
         <v>254</v>
@@ -4394,7 +4401,7 @@
     </row>
     <row r="312" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A312" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B312">
         <v>258</v>
@@ -4402,7 +4409,7 @@
     </row>
     <row r="313" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A313" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B313">
         <v>261</v>
@@ -4410,7 +4417,7 @@
     </row>
     <row r="314" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A314" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B314">
         <v>261</v>
@@ -4418,7 +4425,7 @@
     </row>
     <row r="315" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A315" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B315">
         <v>263</v>
@@ -4426,7 +4433,7 @@
     </row>
     <row r="316" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A316" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B316">
         <v>254</v>
@@ -4434,7 +4441,7 @@
     </row>
     <row r="317" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A317" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B317">
         <v>254</v>
@@ -4442,7 +4449,7 @@
     </row>
     <row r="318" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A318" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B318">
         <v>251</v>
@@ -4450,7 +4457,7 @@
     </row>
     <row r="319" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A319" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B319">
         <v>258</v>
@@ -4458,7 +4465,7 @@
     </row>
     <row r="320" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A320" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B320">
         <v>254</v>
@@ -4466,7 +4473,7 @@
     </row>
     <row r="321" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A321" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B321">
         <v>251</v>
@@ -4474,7 +4481,7 @@
     </row>
     <row r="322" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A322" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B322">
         <v>255</v>
@@ -4482,7 +4489,7 @@
     </row>
     <row r="323" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A323" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B323">
         <v>259</v>
@@ -4490,7 +4497,7 @@
     </row>
     <row r="324" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A324" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B324">
         <v>263</v>
@@ -4498,7 +4505,7 @@
     </row>
     <row r="325" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A325" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B325">
         <v>264</v>
@@ -4506,7 +4513,7 @@
     </row>
     <row r="326" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A326" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B326">
         <v>254</v>
@@ -4514,7 +4521,7 @@
     </row>
     <row r="327" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A327" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B327">
         <v>259</v>
@@ -4522,7 +4529,7 @@
     </row>
     <row r="328" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A328" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B328">
         <v>252</v>
@@ -4530,7 +4537,7 @@
     </row>
     <row r="329" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A329" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B329">
         <v>257</v>
@@ -4538,7 +4545,7 @@
     </row>
     <row r="330" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A330" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B330">
         <v>259</v>
@@ -4546,7 +4553,7 @@
     </row>
     <row r="331" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A331" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B331">
         <v>255</v>
@@ -4554,7 +4561,7 @@
     </row>
     <row r="332" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A332" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B332">
         <v>258</v>
@@ -4562,7 +4569,7 @@
     </row>
     <row r="333" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A333" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B333">
         <v>260</v>
@@ -4570,7 +4577,7 @@
     </row>
     <row r="334" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A334" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B334">
         <v>264</v>
@@ -4578,7 +4585,7 @@
     </row>
     <row r="335" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A335" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B335">
         <v>266</v>
@@ -4586,7 +4593,7 @@
     </row>
     <row r="336" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A336" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B336">
         <v>257</v>
@@ -4594,7 +4601,7 @@
     </row>
     <row r="337" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A337" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B337">
         <v>256</v>
@@ -4602,7 +4609,7 @@
     </row>
     <row r="338" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A338" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B338">
         <v>256</v>
@@ -4610,7 +4617,7 @@
     </row>
     <row r="339" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A339" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B339">
         <v>263</v>
@@ -4618,7 +4625,7 @@
     </row>
     <row r="340" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A340" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B340">
         <v>257</v>
@@ -4626,7 +4633,7 @@
     </row>
     <row r="341" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A341" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B341">
         <v>256</v>
@@ -4634,7 +4641,7 @@
     </row>
     <row r="342" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A342" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B342">
         <v>260</v>
@@ -4642,7 +4649,7 @@
     </row>
     <row r="343" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A343" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B343">
         <v>264</v>
@@ -4650,7 +4657,7 @@
     </row>
     <row r="344" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A344" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B344">
         <v>267</v>
@@ -4658,7 +4665,7 @@
     </row>
     <row r="345" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A345" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B345">
         <v>265</v>
@@ -4666,7 +4673,7 @@
     </row>
     <row r="346" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A346" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B346">
         <v>257</v>
@@ -4674,7 +4681,7 @@
     </row>
     <row r="347" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A347" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B347">
         <v>261</v>
@@ -4682,7 +4689,7 @@
     </row>
     <row r="348" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A348" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B348">
         <v>259</v>
@@ -4690,7 +4697,7 @@
     </row>
     <row r="349" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A349" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B349">
         <v>261</v>
@@ -4698,7 +4705,7 @@
     </row>
     <row r="350" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A350" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B350">
         <v>260</v>
@@ -4706,7 +4713,7 @@
     </row>
     <row r="351" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A351" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B351">
         <v>259</v>
@@ -4714,7 +4721,7 @@
     </row>
     <row r="352" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A352" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B352">
         <v>262</v>
@@ -4722,7 +4729,7 @@
     </row>
     <row r="353" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A353" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B353">
         <v>266</v>
@@ -4730,7 +4737,7 @@
     </row>
     <row r="354" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A354" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B354">
         <v>268</v>
@@ -4738,7 +4745,7 @@
     </row>
     <row r="355" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A355" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B355">
         <v>269</v>
@@ -4746,7 +4753,7 @@
     </row>
     <row r="356" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A356" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B356">
         <v>261</v>
@@ -4754,7 +4761,7 @@
     </row>
     <row r="357" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A357" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B357">
         <v>263</v>
@@ -4762,7 +4769,7 @@
     </row>
     <row r="358" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A358" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B358">
         <v>258</v>
@@ -4770,7 +4777,7 @@
     </row>
     <row r="359" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A359" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B359">
         <v>266</v>
@@ -4778,7 +4785,7 @@
     </row>
     <row r="360" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A360" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B360">
         <v>261</v>
@@ -4786,7 +4793,7 @@
     </row>
     <row r="361" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A361" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B361">
         <v>260</v>
@@ -4794,7 +4801,7 @@
     </row>
     <row r="362" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A362" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B362">
         <v>268</v>
@@ -4802,7 +4809,7 @@
     </row>
     <row r="363" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A363" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B363">
         <v>272</v>
@@ -4810,7 +4817,7 @@
     </row>
     <row r="364" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A364" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B364">
         <v>271</v>
@@ -4818,7 +4825,7 @@
     </row>
     <row r="365" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A365" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B365">
         <v>273</v>
@@ -4826,7 +4833,7 @@
     </row>
     <row r="366" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A366" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B366">
         <v>262</v>
@@ -4834,7 +4841,7 @@
     </row>
     <row r="367" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A367" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B367">
         <v>263</v>
@@ -4842,7 +4849,7 @@
     </row>
     <row r="368" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A368" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B368">
         <v>267</v>
@@ -4850,7 +4857,7 @@
     </row>
     <row r="369" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A369" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B369">
         <v>266</v>
@@ -4858,7 +4865,7 @@
     </row>
     <row r="370" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A370" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B370">
         <v>265</v>
@@ -4866,7 +4873,7 @@
     </row>
     <row r="371" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A371" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B371">
         <v>266</v>
@@ -4874,7 +4881,7 @@
     </row>
     <row r="372" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A372" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B372">
         <v>272</v>
@@ -4882,7 +4889,7 @@
     </row>
     <row r="373" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A373" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B373">
         <v>277</v>
@@ -4890,7 +4897,7 @@
     </row>
     <row r="374" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A374" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B374">
         <v>278</v>
@@ -4898,7 +4905,7 @@
     </row>
     <row r="375" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A375" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B375">
         <v>281</v>
@@ -4906,7 +4913,7 @@
     </row>
     <row r="376" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A376" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B376">
         <v>273</v>
@@ -4914,7 +4921,7 @@
     </row>
     <row r="377" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A377" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B377">
         <v>273</v>
@@ -4922,7 +4929,7 @@
     </row>
     <row r="378" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A378" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B378">
         <v>271</v>
@@ -4930,7 +4937,7 @@
     </row>
     <row r="379" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A379" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B379">
         <v>276</v>
@@ -4938,7 +4945,7 @@
     </row>
     <row r="380" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A380" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B380">
         <v>272</v>
@@ -4946,7 +4953,7 @@
     </row>
     <row r="381" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A381" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B381">
         <v>271</v>
@@ -4954,7 +4961,7 @@
     </row>
     <row r="382" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A382" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B382">
         <v>286</v>
@@ -4962,7 +4969,7 @@
     </row>
     <row r="383" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A383" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B383">
         <v>288</v>
@@ -4970,7 +4977,7 @@
     </row>
     <row r="384" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A384" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B384">
         <v>290</v>
@@ -4978,7 +4985,7 @@
     </row>
     <row r="385" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A385" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B385">
         <v>293</v>
@@ -4986,7 +4993,7 @@
     </row>
     <row r="386" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A386" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B386">
         <v>285</v>
@@ -4994,7 +5001,7 @@
     </row>
     <row r="387" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A387" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B387">
         <v>288</v>
@@ -5002,7 +5009,7 @@
     </row>
     <row r="388" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A388" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B388">
         <v>286</v>
@@ -5010,7 +5017,7 @@
     </row>
     <row r="389" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A389" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B389">
         <v>289</v>
@@ -5018,7 +5025,7 @@
     </row>
     <row r="390" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A390" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B390">
         <v>286</v>
@@ -5026,7 +5033,7 @@
     </row>
     <row r="391" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A391" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B391">
         <v>285</v>
@@ -5034,7 +5041,7 @@
     </row>
     <row r="392" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A392" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B392">
         <v>330</v>
@@ -5042,7 +5049,7 @@
     </row>
     <row r="393" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A393" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B393">
         <v>331</v>
@@ -5050,7 +5057,7 @@
     </row>
     <row r="394" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A394" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B394">
         <v>332</v>
@@ -5058,7 +5065,7 @@
     </row>
     <row r="395" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A395" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B395">
         <v>329</v>
@@ -5066,7 +5073,7 @@
     </row>
     <row r="396" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A396" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B396">
         <v>328</v>
@@ -5074,7 +5081,7 @@
     </row>
     <row r="397" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A397" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B397">
         <v>329</v>
@@ -5082,7 +5089,7 @@
     </row>
     <row r="398" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A398" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B398">
         <v>326</v>
@@ -5090,7 +5097,7 @@
     </row>
     <row r="399" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A399" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B399">
         <v>328</v>
@@ -5098,7 +5105,7 @@
     </row>
     <row r="400" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A400" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B400">
         <v>328</v>
@@ -5106,7 +5113,7 @@
     </row>
     <row r="401" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A401" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B401">
         <v>326</v>
@@ -5114,722 +5121,772 @@
     </row>
     <row r="402" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A402" t="s">
-        <v>402</v>
-      </c>
-      <c r="B402">
-        <v>529</v>
+        <v>401</v>
+      </c>
+      <c r="B402" s="2">
+        <v>514</v>
       </c>
     </row>
     <row r="403" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A403" t="s">
-        <v>403</v>
-      </c>
-      <c r="B403">
-        <v>535</v>
+        <v>402</v>
+      </c>
+      <c r="B403" s="2">
+        <v>519</v>
       </c>
     </row>
     <row r="404" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A404" t="s">
-        <v>404</v>
-      </c>
-      <c r="B404">
-        <v>540</v>
+        <v>403</v>
+      </c>
+      <c r="B404" s="2">
+        <v>523</v>
       </c>
     </row>
     <row r="405" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A405" t="s">
-        <v>405</v>
-      </c>
-      <c r="B405">
-        <v>540</v>
+        <v>404</v>
+      </c>
+      <c r="B405" s="2">
+        <v>531</v>
       </c>
     </row>
     <row r="406" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A406" t="s">
-        <v>406</v>
-      </c>
-      <c r="B406">
-        <v>528</v>
+        <v>405</v>
+      </c>
+      <c r="B406" s="2">
+        <v>505</v>
       </c>
     </row>
     <row r="407" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A407" t="s">
-        <v>407</v>
-      </c>
-      <c r="B407">
-        <v>528</v>
+        <v>406</v>
+      </c>
+      <c r="B407" s="2">
+        <v>506</v>
       </c>
     </row>
     <row r="408" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A408" t="s">
-        <v>408</v>
-      </c>
-      <c r="B408">
-        <v>524</v>
+        <v>407</v>
+      </c>
+      <c r="B408" s="2">
+        <v>505</v>
       </c>
     </row>
     <row r="409" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A409" t="s">
-        <v>409</v>
-      </c>
-      <c r="B409">
-        <v>534</v>
+        <v>408</v>
+      </c>
+      <c r="B409" s="2">
+        <v>521</v>
       </c>
     </row>
     <row r="410" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A410" t="s">
-        <v>410</v>
-      </c>
-      <c r="B410">
-        <v>529</v>
+        <v>409</v>
+      </c>
+      <c r="B410" s="2">
+        <v>513</v>
       </c>
     </row>
     <row r="411" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A411" s="1" t="s">
-        <v>411</v>
-      </c>
-      <c r="B411" s="1">
-        <v>526</v>
+        <v>410</v>
+      </c>
+      <c r="B411" s="2">
+        <v>505</v>
       </c>
     </row>
     <row r="412" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A412" t="s">
-        <v>412</v>
-      </c>
-      <c r="B412">
-        <v>520</v>
+        <v>411</v>
+      </c>
+      <c r="B412" s="2">
+        <v>515</v>
       </c>
     </row>
     <row r="413" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A413" t="s">
-        <v>413</v>
-      </c>
-      <c r="B413">
-        <v>529</v>
+        <v>412</v>
+      </c>
+      <c r="B413" s="2">
+        <v>515</v>
       </c>
     </row>
     <row r="414" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A414" t="s">
-        <v>414</v>
-      </c>
-      <c r="B414">
-        <v>532</v>
+        <v>413</v>
+      </c>
+      <c r="B414" s="2">
+        <v>527</v>
       </c>
     </row>
     <row r="415" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A415" t="s">
-        <v>415</v>
-      </c>
-      <c r="B415">
-        <v>533</v>
+        <v>414</v>
+      </c>
+      <c r="B415" s="2">
+        <v>527</v>
       </c>
     </row>
     <row r="416" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A416" t="s">
-        <v>416</v>
-      </c>
-      <c r="B416">
-        <v>518</v>
+        <v>415</v>
+      </c>
+      <c r="B416" s="2">
+        <v>507</v>
       </c>
     </row>
     <row r="417" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A417" t="s">
-        <v>417</v>
-      </c>
-      <c r="B417">
-        <v>527</v>
+        <v>416</v>
+      </c>
+      <c r="B417" s="2">
+        <v>510</v>
       </c>
     </row>
     <row r="418" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A418" t="s">
-        <v>418</v>
-      </c>
-      <c r="B418">
-        <v>513</v>
+        <v>417</v>
+      </c>
+      <c r="B418" s="2">
+        <v>507</v>
       </c>
     </row>
     <row r="419" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A419" t="s">
-        <v>419</v>
-      </c>
-      <c r="B419">
-        <v>527</v>
+        <v>418</v>
+      </c>
+      <c r="B419" s="2">
+        <v>517</v>
       </c>
     </row>
     <row r="420" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A420" t="s">
-        <v>420</v>
-      </c>
-      <c r="B420">
-        <v>520</v>
+        <v>419</v>
+      </c>
+      <c r="B420" s="2">
+        <v>512</v>
       </c>
     </row>
     <row r="421" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A421" s="1" t="s">
-        <v>421</v>
-      </c>
-      <c r="B421" s="1">
-        <v>515</v>
+        <v>420</v>
+      </c>
+      <c r="B421" s="2">
+        <v>507</v>
       </c>
     </row>
     <row r="422" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A422" t="s">
-        <v>422</v>
-      </c>
-      <c r="B422">
-        <v>519</v>
+        <v>421</v>
+      </c>
+      <c r="B422" s="2">
+        <v>514</v>
       </c>
     </row>
     <row r="423" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A423" t="s">
-        <v>423</v>
-      </c>
-      <c r="B423">
-        <v>526</v>
+        <v>422</v>
+      </c>
+      <c r="B423" s="2">
+        <v>518</v>
       </c>
     </row>
     <row r="424" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A424" t="s">
-        <v>424</v>
-      </c>
-      <c r="B424">
-        <v>540</v>
+        <v>423</v>
+      </c>
+      <c r="B424" s="2">
+        <v>521</v>
       </c>
     </row>
     <row r="425" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A425" t="s">
-        <v>425</v>
-      </c>
-      <c r="B425">
-        <v>534</v>
+        <v>424</v>
+      </c>
+      <c r="B425" s="2">
+        <v>523</v>
       </c>
     </row>
     <row r="426" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A426" t="s">
-        <v>426</v>
-      </c>
-      <c r="B426">
-        <v>518</v>
+        <v>425</v>
+      </c>
+      <c r="B426" s="2">
+        <v>515</v>
       </c>
     </row>
     <row r="427" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A427" t="s">
-        <v>427</v>
-      </c>
-      <c r="B427">
-        <v>518</v>
+        <v>426</v>
+      </c>
+      <c r="B427" s="2">
+        <v>512</v>
       </c>
     </row>
     <row r="428" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A428" t="s">
-        <v>428</v>
-      </c>
-      <c r="B428">
-        <v>513</v>
+        <v>427</v>
+      </c>
+      <c r="B428" s="2">
+        <v>504</v>
       </c>
     </row>
     <row r="429" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A429" t="s">
-        <v>429</v>
-      </c>
-      <c r="B429">
-        <v>525</v>
+        <v>428</v>
+      </c>
+      <c r="B429" s="2">
+        <v>520</v>
       </c>
     </row>
     <row r="430" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A430" t="s">
-        <v>430</v>
-      </c>
-      <c r="B430">
-        <v>521</v>
+        <v>429</v>
+      </c>
+      <c r="B430" s="2">
+        <v>512</v>
       </c>
     </row>
     <row r="431" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A431" s="1" t="s">
-        <v>431</v>
-      </c>
-      <c r="B431" s="1">
-        <v>515</v>
+        <v>430</v>
+      </c>
+      <c r="B431" s="2">
+        <v>507</v>
       </c>
     </row>
     <row r="432" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A432" t="s">
-        <v>432</v>
-      </c>
-      <c r="B432">
-        <v>520</v>
+        <v>431</v>
+      </c>
+      <c r="B432" s="2">
+        <v>509</v>
       </c>
     </row>
     <row r="433" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A433" t="s">
-        <v>433</v>
-      </c>
-      <c r="B433">
-        <v>527</v>
+        <v>432</v>
+      </c>
+      <c r="B433" s="2">
+        <v>520</v>
       </c>
     </row>
     <row r="434" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A434" t="s">
-        <v>434</v>
-      </c>
-      <c r="B434">
-        <v>535</v>
+        <v>433</v>
+      </c>
+      <c r="B434" s="2">
+        <v>526</v>
       </c>
     </row>
     <row r="435" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A435" t="s">
-        <v>435</v>
-      </c>
-      <c r="B435">
-        <v>535</v>
+        <v>434</v>
+      </c>
+      <c r="B435" s="2">
+        <v>524</v>
       </c>
     </row>
     <row r="436" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A436" t="s">
-        <v>436</v>
-      </c>
-      <c r="B436">
-        <v>517</v>
+        <v>435</v>
+      </c>
+      <c r="B436" s="2">
+        <v>513</v>
       </c>
     </row>
     <row r="437" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A437" t="s">
-        <v>437</v>
-      </c>
-      <c r="B437">
-        <v>519</v>
+        <v>436</v>
+      </c>
+      <c r="B437" s="2">
+        <v>512</v>
       </c>
     </row>
     <row r="438" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A438" t="s">
-        <v>438</v>
-      </c>
-      <c r="B438">
-        <v>516</v>
+        <v>437</v>
+      </c>
+      <c r="B438" s="2">
+        <v>510</v>
       </c>
     </row>
     <row r="439" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A439" t="s">
-        <v>439</v>
-      </c>
-      <c r="B439">
-        <v>526</v>
+        <v>438</v>
+      </c>
+      <c r="B439" s="2">
+        <v>517</v>
       </c>
     </row>
     <row r="440" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A440" t="s">
-        <v>440</v>
-      </c>
-      <c r="B440">
-        <v>521</v>
+        <v>439</v>
+      </c>
+      <c r="B440" s="2">
+        <v>516</v>
       </c>
     </row>
     <row r="441" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A441" s="1" t="s">
-        <v>441</v>
-      </c>
-      <c r="B441" s="1">
-        <v>515</v>
+        <v>440</v>
+      </c>
+      <c r="B441" s="2">
+        <v>507</v>
       </c>
     </row>
     <row r="442" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A442" t="s">
-        <v>442</v>
-      </c>
-      <c r="B442">
-        <v>520</v>
+        <v>441</v>
+      </c>
+      <c r="B442" s="2">
+        <v>516</v>
       </c>
     </row>
     <row r="443" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A443" t="s">
-        <v>443</v>
-      </c>
-      <c r="B443">
-        <v>526</v>
+        <v>442</v>
+      </c>
+      <c r="B443" s="2">
+        <v>520</v>
       </c>
     </row>
     <row r="444" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A444" t="s">
-        <v>444</v>
-      </c>
-      <c r="B444">
-        <v>533</v>
+        <v>443</v>
+      </c>
+      <c r="B444" s="2">
+        <v>525</v>
       </c>
     </row>
     <row r="445" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A445" t="s">
-        <v>445</v>
-      </c>
-      <c r="B445">
-        <v>533</v>
+        <v>444</v>
+      </c>
+      <c r="B445" s="2">
+        <v>529</v>
       </c>
     </row>
     <row r="446" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A446" t="s">
-        <v>446</v>
-      </c>
-      <c r="B446">
-        <v>518</v>
+        <v>445</v>
+      </c>
+      <c r="B446" s="2">
+        <v>512</v>
       </c>
     </row>
     <row r="447" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A447" t="s">
-        <v>447</v>
-      </c>
-      <c r="B447">
-        <v>520</v>
+        <v>446</v>
+      </c>
+      <c r="B447" s="2">
+        <v>518</v>
       </c>
     </row>
     <row r="448" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A448" t="s">
-        <v>448</v>
-      </c>
-      <c r="B448">
-        <v>515</v>
+        <v>447</v>
+      </c>
+      <c r="B448" s="2">
+        <v>506</v>
       </c>
     </row>
     <row r="449" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A449" t="s">
-        <v>449</v>
-      </c>
-      <c r="B449">
-        <v>525</v>
+        <v>448</v>
+      </c>
+      <c r="B449" s="2">
+        <v>518</v>
       </c>
     </row>
     <row r="450" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A450" t="s">
-        <v>450</v>
-      </c>
-      <c r="B450">
-        <v>519</v>
+        <v>449</v>
+      </c>
+      <c r="B450" s="2">
+        <v>515</v>
       </c>
     </row>
     <row r="451" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A451" s="1" t="s">
-        <v>451</v>
-      </c>
-      <c r="B451" s="1">
-        <v>517</v>
+        <v>450</v>
+      </c>
+      <c r="B451" s="2">
+        <v>507</v>
       </c>
     </row>
     <row r="452" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A452" t="s">
-        <v>452</v>
-      </c>
-      <c r="B452">
-        <v>519</v>
+        <v>451</v>
+      </c>
+      <c r="B452" s="2">
+        <v>515</v>
       </c>
     </row>
     <row r="453" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A453" t="s">
-        <v>453</v>
-      </c>
-      <c r="B453">
-        <v>525</v>
+        <v>452</v>
+      </c>
+      <c r="B453" s="2">
+        <v>521</v>
       </c>
     </row>
     <row r="454" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A454" t="s">
-        <v>454</v>
-      </c>
-      <c r="B454">
-        <v>532</v>
+        <v>453</v>
+      </c>
+      <c r="B454" s="2">
+        <v>529</v>
       </c>
     </row>
     <row r="455" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A455" t="s">
-        <v>455</v>
-      </c>
-      <c r="B455">
-        <v>533</v>
+        <v>454</v>
+      </c>
+      <c r="B455" s="2">
+        <v>530</v>
       </c>
     </row>
     <row r="456" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A456" t="s">
-        <v>456</v>
-      </c>
-      <c r="B456">
-        <v>518</v>
+        <v>455</v>
+      </c>
+      <c r="B456" s="2">
+        <v>516</v>
       </c>
     </row>
     <row r="457" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A457" t="s">
-        <v>457</v>
-      </c>
-      <c r="B457">
-        <v>521</v>
+        <v>456</v>
+      </c>
+      <c r="B457" s="2">
+        <v>516</v>
       </c>
     </row>
     <row r="458" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A458" t="s">
-        <v>458</v>
-      </c>
-      <c r="B458">
-        <v>514</v>
+        <v>457</v>
+      </c>
+      <c r="B458" s="2">
+        <v>512</v>
       </c>
     </row>
     <row r="459" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A459" t="s">
-        <v>459</v>
-      </c>
-      <c r="B459">
-        <v>527</v>
+        <v>458</v>
+      </c>
+      <c r="B459" s="2">
+        <v>524</v>
       </c>
     </row>
     <row r="460" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A460" t="s">
-        <v>460</v>
-      </c>
-      <c r="B460">
-        <v>523</v>
+        <v>459</v>
+      </c>
+      <c r="B460" s="2">
+        <v>517</v>
       </c>
     </row>
     <row r="461" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A461" s="1" t="s">
-        <v>461</v>
-      </c>
-      <c r="B461" s="1">
-        <v>517</v>
+        <v>460</v>
+      </c>
+      <c r="B461" s="2">
+        <v>515</v>
       </c>
     </row>
     <row r="462" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A462" t="s">
-        <v>462</v>
-      </c>
-      <c r="B462">
-        <v>520</v>
+        <v>461</v>
+      </c>
+      <c r="B462" s="2">
+        <v>518</v>
       </c>
     </row>
     <row r="463" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A463" t="s">
-        <v>463</v>
-      </c>
-      <c r="B463">
-        <v>528</v>
+        <v>462</v>
+      </c>
+      <c r="B463" s="2">
+        <v>524</v>
       </c>
     </row>
     <row r="464" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A464" t="s">
-        <v>464</v>
-      </c>
-      <c r="B464">
-        <v>533</v>
+        <v>463</v>
+      </c>
+      <c r="B464" s="2">
+        <v>532</v>
       </c>
     </row>
     <row r="465" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A465" t="s">
-        <v>465</v>
-      </c>
-      <c r="B465">
-        <v>537</v>
+        <v>464</v>
+      </c>
+      <c r="B465" s="2">
+        <v>535</v>
       </c>
     </row>
     <row r="466" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A466" t="s">
-        <v>466</v>
-      </c>
-      <c r="B466">
-        <v>520</v>
+        <v>465</v>
+      </c>
+      <c r="B466" s="2">
+        <v>518</v>
       </c>
     </row>
     <row r="467" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A467" t="s">
-        <v>467</v>
-      </c>
-      <c r="B467">
-        <v>521</v>
+        <v>466</v>
+      </c>
+      <c r="B467" s="2">
+        <v>519</v>
       </c>
     </row>
     <row r="468" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A468" t="s">
-        <v>468</v>
-      </c>
-      <c r="B468">
-        <v>515</v>
+        <v>467</v>
+      </c>
+      <c r="B468" s="2">
+        <v>512</v>
       </c>
     </row>
     <row r="469" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A469" t="s">
-        <v>469</v>
-      </c>
-      <c r="B469">
-        <v>527</v>
+        <v>468</v>
+      </c>
+      <c r="B469" s="2">
+        <v>526</v>
       </c>
     </row>
     <row r="470" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A470" t="s">
-        <v>470</v>
-      </c>
-      <c r="B470">
-        <v>521</v>
+        <v>469</v>
+      </c>
+      <c r="B470" s="2">
+        <v>519</v>
       </c>
     </row>
     <row r="471" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A471" s="1" t="s">
-        <v>471</v>
-      </c>
-      <c r="B471" s="1">
-        <v>520</v>
+        <v>470</v>
+      </c>
+      <c r="B471" s="2">
+        <v>515</v>
       </c>
     </row>
     <row r="472" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A472" t="s">
-        <v>472</v>
-      </c>
-      <c r="B472">
-        <v>521</v>
+        <v>471</v>
+      </c>
+      <c r="B472" s="2">
+        <v>520</v>
       </c>
     </row>
     <row r="473" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A473" t="s">
-        <v>473</v>
-      </c>
-      <c r="B473">
-        <v>531</v>
+        <v>472</v>
+      </c>
+      <c r="B473" s="2">
+        <v>529</v>
       </c>
     </row>
     <row r="474" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A474" t="s">
-        <v>474</v>
-      </c>
-      <c r="B474">
-        <v>537</v>
+        <v>473</v>
+      </c>
+      <c r="B474" s="2">
+        <v>533</v>
       </c>
     </row>
     <row r="475" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A475" t="s">
-        <v>475</v>
-      </c>
-      <c r="B475">
-        <v>537</v>
+        <v>474</v>
+      </c>
+      <c r="B475" s="2">
+        <v>534</v>
       </c>
     </row>
     <row r="476" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A476" t="s">
-        <v>476</v>
-      </c>
-      <c r="B476">
-        <v>522</v>
+        <v>475</v>
+      </c>
+      <c r="B476" s="2">
+        <v>518</v>
       </c>
     </row>
     <row r="477" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A477" t="s">
-        <v>477</v>
-      </c>
-      <c r="B477">
+        <v>476</v>
+      </c>
+      <c r="B477" s="2">
         <v>524</v>
       </c>
     </row>
     <row r="478" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A478" t="s">
-        <v>478</v>
-      </c>
-      <c r="B478">
-        <v>516</v>
+        <v>477</v>
+      </c>
+      <c r="B478" s="2">
+        <v>515</v>
       </c>
     </row>
     <row r="479" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A479" t="s">
-        <v>479</v>
-      </c>
-      <c r="B479">
-        <v>529</v>
+        <v>478</v>
+      </c>
+      <c r="B479" s="2">
+        <v>528</v>
       </c>
     </row>
     <row r="480" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A480" t="s">
-        <v>480</v>
-      </c>
-      <c r="B480">
-        <v>523</v>
+        <v>479</v>
+      </c>
+      <c r="B480" s="2">
+        <v>520</v>
       </c>
     </row>
     <row r="481" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A481" s="1" t="s">
-        <v>481</v>
-      </c>
-      <c r="B481" s="1">
-        <v>517</v>
+        <v>480</v>
+      </c>
+      <c r="B481" s="2">
+        <v>518</v>
       </c>
     </row>
     <row r="482" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A482" t="s">
-        <v>482</v>
-      </c>
-      <c r="B482">
-        <v>525</v>
+        <v>481</v>
+      </c>
+      <c r="B482" s="2">
+        <v>524</v>
       </c>
     </row>
     <row r="483" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A483" t="s">
-        <v>483</v>
-      </c>
-      <c r="B483">
-        <v>533</v>
+        <v>482</v>
+      </c>
+      <c r="B483" s="2">
+        <v>531</v>
       </c>
     </row>
     <row r="484" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A484" t="s">
-        <v>484</v>
-      </c>
-      <c r="B484">
-        <v>540</v>
+        <v>483</v>
+      </c>
+      <c r="B484" s="2">
+        <v>539</v>
       </c>
     </row>
     <row r="485" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A485" t="s">
-        <v>485</v>
-      </c>
-      <c r="B485">
-        <v>539</v>
+        <v>484</v>
+      </c>
+      <c r="B485" s="2">
+        <v>537</v>
       </c>
     </row>
     <row r="486" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A486" t="s">
-        <v>486</v>
-      </c>
-      <c r="B486">
-        <v>525</v>
+        <v>485</v>
+      </c>
+      <c r="B486" s="2">
+        <v>523</v>
       </c>
     </row>
     <row r="487" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A487" t="s">
-        <v>487</v>
-      </c>
-      <c r="B487">
-        <v>526</v>
+        <v>486</v>
+      </c>
+      <c r="B487" s="2">
+        <v>524</v>
       </c>
     </row>
     <row r="488" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A488" t="s">
-        <v>488</v>
-      </c>
-      <c r="B488">
+        <v>487</v>
+      </c>
+      <c r="B488" s="2">
         <v>519</v>
       </c>
     </row>
     <row r="489" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A489" t="s">
-        <v>489</v>
-      </c>
-      <c r="B489">
+        <v>488</v>
+      </c>
+      <c r="B489" s="2">
         <v>529</v>
       </c>
     </row>
     <row r="490" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A490" t="s">
-        <v>490</v>
-      </c>
-      <c r="B490">
-        <v>524</v>
+        <v>489</v>
+      </c>
+      <c r="B490" s="2">
+        <v>525</v>
       </c>
     </row>
     <row r="491" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A491" s="1" t="s">
-        <v>491</v>
-      </c>
-      <c r="B491" s="1">
-        <v>522</v>
+        <v>490</v>
+      </c>
+      <c r="B491" s="2">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="492" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B492" s="2">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="493" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B493" s="2">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="494" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B494" s="2">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="495" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B495" s="2">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="496" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B496" s="2">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="497" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B497" s="2">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="498" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B498" s="2">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="499" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B499" s="2">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="500" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B500" s="2">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="501" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B501" s="2">
+        <v>529</v>
       </c>
     </row>
   </sheetData>
